--- a/data/playground/testing_combinations_3.xlsx
+++ b/data/playground/testing_combinations_3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14540" yWindow="6680" windowWidth="12640" windowHeight="7980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="125">
   <si>
     <t>Amenities</t>
   </si>
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1046,6 +1046,9 @@
         <f>G5*1+F5*2+E5*4+D5*8+C5*16+B5*32</f>
         <v>1</v>
       </c>
+      <c r="I5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1073,6 +1076,9 @@
         <f t="shared" ref="H6:H67" si="0">G6*1+F6*2+E6*4+D6*8+C6*16+B6*32</f>
         <v>2</v>
       </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -1100,6 +1106,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1127,6 +1136,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1154,6 +1166,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="I9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1181,6 +1196,9 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="I10" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -1208,6 +1226,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="I11" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1235,6 +1256,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="I12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1262,6 +1286,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="I13" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1289,6 +1316,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="I14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1316,6 +1346,9 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="I15" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1343,8 +1376,11 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1370,8 +1406,11 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1397,8 +1436,11 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1424,8 +1466,11 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1451,8 +1496,11 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1478,8 +1526,11 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1505,8 +1556,11 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1533,7 +1587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1560,7 +1614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1587,7 +1641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1614,7 +1668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1641,7 +1695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1668,7 +1722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1695,7 +1749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1722,7 +1776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1749,7 +1803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1776,7 +1830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1803,7 +1857,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -1830,7 +1884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -1857,7 +1911,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -1884,7 +1938,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -1911,7 +1965,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -1938,7 +1992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -1965,7 +2019,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -1992,7 +2046,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -2019,7 +2073,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -2046,7 +2100,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -2073,7 +2127,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -2734,7 +2788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BO9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="P1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>

--- a/data/playground/testing_combinations_3.xlsx
+++ b/data/playground/testing_combinations_3.xlsx
@@ -1,34 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolaswipfler/Git/DM1-Teamproject/data/playground/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Result" sheetId="2" r:id="rId2"/>
+    <sheet name="Results_Helene" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="136">
   <si>
     <t>Amenities</t>
   </si>
@@ -403,13 +399,53 @@
   </si>
   <si>
     <t>44.80</t>
+  </si>
+  <si>
+    <t>num_labels</t>
+  </si>
+  <si>
+    <t>long_tfidf</t>
+  </si>
+  <si>
+    <t>Accuracy_nb</t>
+  </si>
+  <si>
+    <t>Accuracy_knn</t>
+  </si>
+  <si>
+    <t>value of k</t>
+  </si>
+  <si>
+    <t>Accuracy_dt</t>
+  </si>
+  <si>
+    <t>Accuracy_svm</t>
+  </si>
+  <si>
+    <t>Accuracy_nc</t>
+  </si>
+  <si>
+    <t>Max_acc</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -455,19 +491,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -495,7 +537,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A3:J67" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A3:J35" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="Test No." dataDxfId="2"/>
     <tableColumn id="2" name="Normale Spalten"/>
@@ -912,13 +954,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
@@ -927,7 +969,7 @@
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -939,7 +981,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>81</v>
@@ -958,7 +1000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -990,7 +1032,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1020,7 +1062,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1050,7 +1092,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1073,14 +1115,14 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H67" si="0">G6*1+F6*2+E6*4+D6*8+C6*16+B6*32</f>
+        <f t="shared" ref="H6:H35" si="0">G6*1+F6*2+E6*4+D6*8+C6*16+B6*32</f>
         <v>2</v>
       </c>
       <c r="I6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1110,7 +1152,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1140,7 +1182,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1170,7 +1212,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1200,7 +1242,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1230,7 +1272,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1260,7 +1302,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1290,7 +1332,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1320,7 +1362,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1350,7 +1392,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1380,7 +1422,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1410,7 +1452,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1440,7 +1482,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1470,7 +1512,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1500,7 +1542,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1530,7 +1572,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1560,7 +1602,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1586,8 +1628,11 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1613,8 +1658,11 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1640,8 +1688,11 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1667,8 +1718,11 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1694,8 +1748,11 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1721,8 +1778,11 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1749,7 +1809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1776,7 +1836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1803,7 +1863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1830,7 +1890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1857,7 +1917,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -1884,7 +1944,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -1911,876 +1971,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>33</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>34</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>35</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>36</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>37</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>38</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>39</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>40</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>41</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>42</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>43</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>44</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>45</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>46</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>47</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>48</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>49</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>50</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>51</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>52</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>53</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>54</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>55</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>56</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>57</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>58</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>59</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>60</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>61</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>62</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>63</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>64</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2788,16 +1988,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BO9"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:67">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2997,7 +2197,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:67">
       <c r="B3" s="3" t="s">
         <v>76</v>
       </c>
@@ -3063,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:67">
       <c r="B4" s="3" t="s">
         <v>80</v>
       </c>
@@ -3129,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:67">
       <c r="B5" s="3" t="s">
         <v>79</v>
       </c>
@@ -3195,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:67">
       <c r="B6" s="3" t="s">
         <v>77</v>
       </c>
@@ -3261,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:67">
       <c r="B7" s="3" t="s">
         <v>78</v>
       </c>
@@ -3327,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:67">
       <c r="B9" s="3" t="s">
         <v>86</v>
       </c>
@@ -3593,5 +2793,1634 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.6401</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.55120000000000002</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.53239999999999998</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="K2" s="9">
+        <f t="shared" ref="K2:K49" si="0">MAX(D2:E2,G2:I2)</f>
+        <v>0.72360000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.6431</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.55049999999999999</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="7">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.52790000000000004</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="K3" s="9">
+        <f t="shared" si="0"/>
+        <v>0.72360000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="7">
+        <v>0.52329999999999999</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.36520000000000002</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.33960000000000001</v>
+      </c>
+      <c r="K4" s="9">
+        <f t="shared" si="0"/>
+        <v>0.52329999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.45329999999999998</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="7">
+        <v>0.52639999999999998</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.33960000000000001</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="0"/>
+        <v>0.52639999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.33729999999999999</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.2944</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.29670000000000002</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.34339999999999998</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.2944</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7">
+        <v>0.4194</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.29220000000000002</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.4194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.2989</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.22439999999999999</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.21079999999999999</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.1883</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.39460000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.30869999999999997</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.22439999999999999</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.23269999999999999</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.1883</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.39460000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.64380000000000004</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.55120000000000002</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.53839999999999999</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.72360000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.66639999999999999</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.55120000000000002</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.53159999999999996</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.72670000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.44729999999999998</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="F12" s="8">
+        <v>3</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.53539999999999999</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.33960000000000001</v>
+      </c>
+      <c r="K12" s="9">
+        <f>MAX(D12:E12,G12:I12)</f>
+        <v>0.53539999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.45710000000000001</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.34710000000000002</v>
+      </c>
+      <c r="F13" s="8">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.53539999999999999</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.35620000000000002</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.33960000000000001</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.53539999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.34939999999999999</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.29520000000000002</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.42770000000000002</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.28989999999999999</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.42770000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.36969999999999997</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.29520000000000002</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.4239</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.28920000000000001</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="K15" s="9">
+        <f t="shared" si="0"/>
+        <v>0.4239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.3155</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.22439999999999999</v>
+      </c>
+      <c r="F16" s="8">
+        <v>4</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.21229999999999999</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.1883</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.39460000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.32529999999999998</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.22439999999999999</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.22589999999999999</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.1883</v>
+      </c>
+      <c r="K17" s="9">
+        <f t="shared" si="0"/>
+        <v>0.39460000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.63549999999999995</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.55120000000000002</v>
+      </c>
+      <c r="F18" s="8">
+        <v>5</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.53839999999999999</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.72360000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.64380000000000004</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.55120000000000002</v>
+      </c>
+      <c r="F19" s="8">
+        <v>5</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.52639999999999998</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="K19" s="9">
+        <f t="shared" si="0"/>
+        <v>0.72360000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.4405</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="F20" s="8">
+        <v>3</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.53459999999999996</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.36749999999999999</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.33960000000000001</v>
+      </c>
+      <c r="K20" s="9">
+        <f t="shared" si="0"/>
+        <v>0.53459999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.4556</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.34710000000000002</v>
+      </c>
+      <c r="F21" s="8">
+        <v>3</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.53459999999999996</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.34939999999999999</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.33960000000000001</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.53459999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.34639999999999999</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.2944</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.42770000000000002</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.28460000000000002</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" si="0"/>
+        <v>0.42770000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.36521999999999999</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.29520000000000002</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.4239</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.28989999999999999</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="0"/>
+        <v>0.4239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.2944</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.22440000000000002</v>
+      </c>
+      <c r="F24" s="8">
+        <v>4</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.21609999999999999</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0.1883</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" si="0"/>
+        <v>0.39460000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.31850000000000001</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.22440000000000002</v>
+      </c>
+      <c r="F25" s="8">
+        <v>4</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.23420000000000002</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0.1883</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="0"/>
+        <v>0.39460000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.65290000000000004</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.55120000000000002</v>
+      </c>
+      <c r="F26" s="8">
+        <v>5</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.53390000000000004</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="K26" s="9">
+        <f t="shared" si="0"/>
+        <v>0.72360000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.66639999999999999</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.55049999999999999</v>
+      </c>
+      <c r="F27" s="8">
+        <v>5</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="K27" s="9">
+        <f t="shared" si="0"/>
+        <v>0.72670000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="F28" s="8">
+        <v>3</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.53539999999999999</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.36450000000000005</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0.33960000000000001</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" si="0"/>
+        <v>0.53539999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.44799999999999995</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.34710000000000002</v>
+      </c>
+      <c r="F29" s="8">
+        <v>3</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.53539999999999999</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0.34860000000000002</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.33960000000000001</v>
+      </c>
+      <c r="K29" s="9">
+        <f t="shared" si="0"/>
+        <v>0.53539999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.35090000000000005</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.29520000000000002</v>
+      </c>
+      <c r="F30" s="8">
+        <v>2</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.4239</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="K30" s="9">
+        <f t="shared" si="0"/>
+        <v>0.4239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.35170000000000001</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.29520000000000002</v>
+      </c>
+      <c r="F31" s="8">
+        <v>2</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.4239</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.28920000000000001</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="K31" s="9">
+        <f t="shared" si="0"/>
+        <v>0.4239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.33509999999999995</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.22440000000000002</v>
+      </c>
+      <c r="F32" s="8">
+        <v>4</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0.1883</v>
+      </c>
+      <c r="K32" s="9">
+        <f t="shared" si="0"/>
+        <v>0.39460000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.22440000000000002</v>
+      </c>
+      <c r="F33" s="8">
+        <v>4</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0.23269999999999999</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0.1883</v>
+      </c>
+      <c r="K33" s="9">
+        <f t="shared" si="0"/>
+        <v>0.39460000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.64080000000000004</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.55120000000000002</v>
+      </c>
+      <c r="F34" s="8">
+        <v>5</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.7229000000000001</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="K34" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7229000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>24</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.6401</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.55049999999999999</v>
+      </c>
+      <c r="F35" s="8">
+        <v>5</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.7229000000000001</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="K35" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7229000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>24</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.43979999999999997</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="F36" s="8">
+        <v>3</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0.53459999999999996</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.34710000000000002</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0.33960000000000001</v>
+      </c>
+      <c r="K36" s="9">
+        <f t="shared" si="0"/>
+        <v>0.53459999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>24</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.46229999999999999</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="F37" s="8">
+        <v>3</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.53459999999999996</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0.33960000000000001</v>
+      </c>
+      <c r="K37" s="9">
+        <f t="shared" si="0"/>
+        <v>0.53459999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>24</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.35240000000000005</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.2944</v>
+      </c>
+      <c r="F38" s="6">
+        <v>2</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.4239</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.28920000000000001</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="K38" s="9">
+        <f t="shared" si="0"/>
+        <v>0.4239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>24</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0.35840000000000005</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.29520000000000002</v>
+      </c>
+      <c r="F39" s="6">
+        <v>2</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0.4239</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0.30349999999999999</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="K39" s="9">
+        <f t="shared" si="0"/>
+        <v>0.4239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>24</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.31170000000000003</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.22440000000000002</v>
+      </c>
+      <c r="F40" s="6">
+        <v>4</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.23420000000000002</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0.1883</v>
+      </c>
+      <c r="K40" s="9">
+        <f t="shared" si="0"/>
+        <v>0.39460000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>24</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0.31170000000000003</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.22440000000000002</v>
+      </c>
+      <c r="F41" s="6">
+        <v>4</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0.23269999999999999</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0.1883</v>
+      </c>
+      <c r="K41" s="9">
+        <f t="shared" si="0"/>
+        <v>0.39460000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>25</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.64529999999999998</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.55120000000000002</v>
+      </c>
+      <c r="F42" s="6">
+        <v>5</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="K42" s="9">
+        <f t="shared" si="0"/>
+        <v>0.72360000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>25</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0.64980000000000004</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.55120000000000002</v>
+      </c>
+      <c r="F43" s="6">
+        <v>5</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0.53239999999999998</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="K43" s="9">
+        <f t="shared" si="0"/>
+        <v>0.72670000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>25</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.44429999999999997</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="F44" s="6">
+        <v>3</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0.52329999999999999</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0.36070000000000002</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0.33960000000000001</v>
+      </c>
+      <c r="K44" s="9">
+        <f t="shared" si="0"/>
+        <v>0.52329999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>25</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0.46079999999999999</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="F45" s="6">
+        <v>3</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0.35770000000000002</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0.33960000000000001</v>
+      </c>
+      <c r="K45" s="9">
+        <f t="shared" si="0"/>
+        <v>0.52710000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>25</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0.36219999999999997</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0.2959</v>
+      </c>
+      <c r="F46" s="6">
+        <v>2</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0.42700000000000005</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0.2989</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="K46" s="9">
+        <f t="shared" si="0"/>
+        <v>0.42700000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0.3614</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0.2959</v>
+      </c>
+      <c r="F47" s="6">
+        <v>2</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0.4194</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0.28770000000000001</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="K47" s="9">
+        <f t="shared" si="0"/>
+        <v>0.4194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>25</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0.22440000000000002</v>
+      </c>
+      <c r="F48" s="6">
+        <v>4</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0.20780000000000001</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0.1883</v>
+      </c>
+      <c r="K48" s="9">
+        <f t="shared" si="0"/>
+        <v>0.39460000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>25</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0.32829999999999998</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0.22440000000000002</v>
+      </c>
+      <c r="F49" s="6">
+        <v>4</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0.22519999999999998</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0.1883</v>
+      </c>
+      <c r="K49" s="9">
+        <f t="shared" si="0"/>
+        <v>0.39460000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>